--- a/src/doc/联网结算平台工作进度.xlsx
+++ b/src/doc/联网结算平台工作进度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicker/go/etc/src/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0281598-BB6A-3349-9C3E-1A52E3708569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2016A2BF-2ADB-3A48-B1E3-9A4B3A31244B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18920" activeTab="4" xr2:uid="{1480D08C-B94D-144C-85E5-40C6CD614514}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18920" activeTab="5" xr2:uid="{1480D08C-B94D-144C-85E5-40C6CD614514}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc256000004" localSheetId="0">Sheet1!$B$45</definedName>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="485">
   <si>
     <t>ETC支付-结算清分</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2040,10 +2041,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据新增到数据库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2137,6 +2134,22 @@
   </si>
   <si>
     <t>发送结果的应答处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算结果：1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算结果：2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联网中心调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、xml文件 需要加 xml文件头部吗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3030,12 +3043,66 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3063,61 +3130,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3133,9 +3149,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6767,13 +6780,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="81" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="84" t="s">
         <v>319</v>
       </c>
-      <c r="C2" s="98"/>
+      <c r="C2" s="85"/>
       <c r="D2" s="19" t="s">
         <v>320</v>
       </c>
@@ -6782,120 +6795,120 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="17">
-      <c r="A3" s="95"/>
-      <c r="B3" s="99" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="86" t="s">
         <v>322</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="89" t="s">
         <v>324</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="89" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="95"/>
-      <c r="B4" s="100"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="87"/>
       <c r="C4" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="95"/>
-      <c r="B5" s="100"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="87"/>
       <c r="C5" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="95"/>
-      <c r="B6" s="100"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="87"/>
       <c r="C6" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
     </row>
     <row r="7" spans="1:5" ht="17" thickBot="1">
-      <c r="A7" s="95"/>
-      <c r="B7" s="101"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="D7" s="92"/>
+      <c r="D7" s="91"/>
       <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" ht="18" thickTop="1">
-      <c r="A8" s="95"/>
-      <c r="B8" s="102" t="s">
+      <c r="A8" s="82"/>
+      <c r="B8" s="92" t="s">
         <v>330</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="D8" s="105"/>
-      <c r="E8" s="81" t="s">
+      <c r="D8" s="95"/>
+      <c r="E8" s="89" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="95"/>
-      <c r="B9" s="103"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="82"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="90"/>
     </row>
     <row r="10" spans="1:5" ht="17" thickBot="1">
-      <c r="A10" s="95"/>
-      <c r="B10" s="104"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="D10" s="107"/>
-      <c r="E10" s="92"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="91"/>
     </row>
     <row r="11" spans="1:5" ht="17" thickTop="1">
-      <c r="A11" s="95"/>
-      <c r="B11" s="108" t="s">
+      <c r="A11" s="82"/>
+      <c r="B11" s="98" t="s">
         <v>335</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>336</v>
       </c>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81" t="s">
+      <c r="D11" s="89"/>
+      <c r="E11" s="89" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="95"/>
-      <c r="B12" s="109"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
     </row>
     <row r="13" spans="1:5" ht="17" thickBot="1">
-      <c r="A13" s="95"/>
-      <c r="B13" s="110"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
     </row>
     <row r="14" spans="1:5" ht="17">
-      <c r="A14" s="95"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="73" t="s">
         <v>339</v>
       </c>
@@ -6905,68 +6918,70 @@
       <c r="D14" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="E14" s="81" t="s">
+      <c r="E14" s="89" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="95"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="74"/>
       <c r="C15" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="102" t="s">
         <v>344</v>
       </c>
-      <c r="E15" s="82"/>
+      <c r="E15" s="90"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="95"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="74"/>
       <c r="C16" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D16" s="84"/>
-      <c r="E16" s="82"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="90"/>
     </row>
     <row r="17" spans="1:5" ht="17" thickBot="1">
-      <c r="A17" s="95"/>
+      <c r="A17" s="82"/>
       <c r="B17" s="74"/>
       <c r="C17" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="D17" s="85"/>
-      <c r="E17" s="83"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="101"/>
     </row>
     <row r="18" spans="1:5" ht="17" thickTop="1">
-      <c r="A18" s="95"/>
-      <c r="B18" s="86" t="s">
+      <c r="A18" s="82"/>
+      <c r="B18" s="104" t="s">
         <v>347</v>
       </c>
-      <c r="C18" s="89" t="s">
+      <c r="C18" s="107" t="s">
         <v>348</v>
       </c>
-      <c r="D18" s="90"/>
-      <c r="E18" s="92" t="s">
+      <c r="D18" s="108"/>
+      <c r="E18" s="91" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="95"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="93"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="110"/>
     </row>
     <row r="20" spans="1:5" ht="17" thickBot="1">
-      <c r="A20" s="96"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="93"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:B7"/>
@@ -6983,8 +6998,6 @@
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7277,8 +7290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39186794-CC16-664F-980B-20B908E46C61}">
   <dimension ref="B2:L22"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A2" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7345,11 +7358,11 @@
       </c>
       <c r="F4" s="63"/>
       <c r="G4" s="63"/>
-      <c r="H4" s="64">
-        <v>1</v>
-      </c>
-      <c r="I4" s="61">
-        <v>2</v>
+      <c r="H4" s="64" t="s">
+        <v>481</v>
+      </c>
+      <c r="I4" s="61" t="s">
+        <v>482</v>
       </c>
       <c r="J4" s="65">
         <v>1</v>
@@ -7705,31 +7718,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7CFFA3-1CB6-CA4C-A0E3-D50F1E1B42BE}">
   <dimension ref="B2:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="144" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="28.83203125" customWidth="1"/>
-    <col min="4" max="4" width="42" customWidth="1"/>
+    <col min="4" max="4" width="75.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="111" t="s">
         <v>448</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
     </row>
     <row r="3" spans="2:5">
       <c r="E3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="112" t="s">
         <v>453</v>
       </c>
       <c r="C4" s="71" t="s">
@@ -7740,7 +7753,7 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="111"/>
+      <c r="B5" s="112"/>
       <c r="C5" t="s">
         <v>451</v>
       </c>
@@ -7749,7 +7762,7 @@
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="111"/>
+      <c r="B6" s="112"/>
       <c r="C6" t="s">
         <v>454</v>
       </c>
@@ -7758,7 +7771,7 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="111"/>
+      <c r="B7" s="112"/>
       <c r="C7" s="71" t="s">
         <v>449</v>
       </c>
@@ -7770,134 +7783,164 @@
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="111"/>
+      <c r="B8" s="112"/>
       <c r="C8" t="s">
         <v>452</v>
       </c>
       <c r="D8" t="s">
+        <v>457</v>
+      </c>
+      <c r="E8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="112"/>
+      <c r="C9" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="113" t="s">
         <v>458</v>
       </c>
-      <c r="E8" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="111"/>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
+        <v>459</v>
+      </c>
+      <c r="D11" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="113"/>
+      <c r="C12" t="s">
+        <v>461</v>
+      </c>
+      <c r="D12" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="114" t="s">
+        <v>462</v>
+      </c>
+      <c r="C14" t="s">
+        <v>463</v>
+      </c>
+      <c r="D14" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="114"/>
+      <c r="C15" t="s">
+        <v>464</v>
+      </c>
+      <c r="D15" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="115" t="s">
+        <v>465</v>
+      </c>
+      <c r="C17" t="s">
+        <v>468</v>
+      </c>
+      <c r="D17" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="115"/>
+      <c r="C18" t="s">
+        <v>469</v>
+      </c>
+      <c r="D18" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="116" t="s">
+        <v>472</v>
+      </c>
+      <c r="C20" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="116"/>
+      <c r="C21" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="116"/>
+      <c r="C22" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="116"/>
+      <c r="C23" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="116"/>
+      <c r="C24" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="112" t="s">
-        <v>459</v>
-      </c>
-      <c r="C11" t="s">
-        <v>460</v>
-      </c>
-      <c r="D11" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="112"/>
-      <c r="C12" t="s">
-        <v>462</v>
-      </c>
-      <c r="D12" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="113" t="s">
-        <v>463</v>
-      </c>
-      <c r="C14" t="s">
-        <v>464</v>
-      </c>
-      <c r="D14" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="113"/>
-      <c r="C15" t="s">
-        <v>465</v>
-      </c>
-      <c r="D15" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="114" t="s">
-        <v>466</v>
-      </c>
-      <c r="C17" t="s">
-        <v>469</v>
-      </c>
-      <c r="D17" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="114"/>
-      <c r="C18" t="s">
-        <v>470</v>
-      </c>
-      <c r="D18" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="115" t="s">
-        <v>473</v>
-      </c>
-      <c r="C20" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="115"/>
-      <c r="C21" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="115"/>
-      <c r="C22" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="115"/>
-      <c r="C23" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="115"/>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>479</v>
       </c>
-      <c r="D24" t="s">
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="116"/>
+      <c r="C25" t="s">
         <v>480</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="115"/>
-      <c r="C25" t="s">
-        <v>481</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B20:B25"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B20:B25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF4FFE5-6484-614B-B260-EC4B3D76AE11}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/doc/联网结算平台工作进度.xlsx
+++ b/src/doc/联网结算平台工作进度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicker/go/etc/src/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2016A2BF-2ADB-3A48-B1E3-9A4B3A31244B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570CDA1A-07F9-3D40-AEA9-BA60205E3932}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18920" activeTab="5" xr2:uid="{1480D08C-B94D-144C-85E5-40C6CD614514}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="507">
   <si>
     <t>ETC支付-结算清分</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2149,7 +2149,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、xml文件 需要加 xml文件头部吗</t>
+    <t>md5是对xml文件的摘要，还是仅对msg部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送原始记录消息包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收记账包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送：即时应答包、接收确认消息应答包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收争议包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收清分统计包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收：接收确认应答包和即时应答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并发---压缩与解压缩的测试【 自测 】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>争议处理结果包【把可以清分的争议数据的目标清分日改为 清分fileid日期】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清分包全是当天的可以记账数据；而当天的争议数据会给出争议数据处理包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、xml文件 需要加 xml文件头部吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、xml中字段格式是否正确？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、压缩文件格式是否正确？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、发送文件发送长度是否加1？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、接收到文件后的即时应答以及确认应答？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件发送与接收过程：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联网中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送：即时应答包、接收确认消息应答包ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、清分统计包、争议包是每天一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有争议的记账包是不是先不能清分，等到清分处理结果出来再清分。还是说可以记账的先清分，有争议的延后到争议处理完后，再清分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、应答包中 Body的ContentType属性是可选的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做这部分的逻辑处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 大小写已忽略</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2157,7 +2245,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2309,8 +2397,16 @@
       <color theme="5"/>
       <name val="等线 (正文)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="32">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2496,8 +2592,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -2790,6 +2892,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2799,7 +2914,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3019,6 +3134,9 @@
     <xf numFmtId="0" fontId="20" fillId="27" borderId="23" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3043,6 +3161,18 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3073,9 +3203,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3124,13 +3251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3148,7 +3269,55 @@
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3503,7 +3672,7 @@
     </row>
     <row r="5" spans="2:4" ht="6" customHeight="1"/>
     <row r="6" spans="2:4">
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="77" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -3514,7 +3683,7 @@
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="76"/>
+      <c r="B7" s="77"/>
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
@@ -3523,7 +3692,7 @@
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="78" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -3534,28 +3703,28 @@
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="77"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="7"/>
       <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="77"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="7"/>
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="77"/>
+      <c r="B11" s="78"/>
       <c r="C11" s="7"/>
       <c r="D11" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="79" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -3566,21 +3735,21 @@
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="78"/>
+      <c r="B13" s="79"/>
       <c r="C13" s="4"/>
       <c r="D13" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="78"/>
+      <c r="B14" s="79"/>
       <c r="C14" s="4"/>
       <c r="D14" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="80" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -3591,28 +3760,28 @@
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="79"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="4"/>
       <c r="D16" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="79"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="4"/>
       <c r="D17" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="79"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="4"/>
       <c r="D18" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="81" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -3623,28 +3792,28 @@
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="80"/>
+      <c r="B20" s="81"/>
       <c r="C20" s="4"/>
       <c r="D20" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="80"/>
+      <c r="B21" s="81"/>
       <c r="C21" s="4"/>
       <c r="D21" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="80"/>
+      <c r="B22" s="81"/>
       <c r="C22" s="4"/>
       <c r="D22" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="74" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -3655,21 +3824,21 @@
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="74"/>
+      <c r="B24" s="75"/>
       <c r="C24" s="4"/>
       <c r="D24" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="74"/>
+      <c r="B25" s="75"/>
       <c r="C25" s="4"/>
       <c r="D25" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="75"/>
+      <c r="B26" s="76"/>
       <c r="C26" s="4"/>
       <c r="D26" s="8" t="s">
         <v>25</v>
@@ -6780,13 +6949,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="86" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="89" t="s">
         <v>319</v>
       </c>
-      <c r="C2" s="85"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="19" t="s">
         <v>320</v>
       </c>
@@ -6795,121 +6964,121 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="17">
-      <c r="A3" s="82"/>
-      <c r="B3" s="86" t="s">
+      <c r="A3" s="87"/>
+      <c r="B3" s="91" t="s">
         <v>322</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="94" t="s">
         <v>324</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="94" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="82"/>
-      <c r="B4" s="87"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="92"/>
       <c r="C4" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="82"/>
-      <c r="B5" s="87"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="92"/>
       <c r="C5" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="82"/>
-      <c r="B6" s="87"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
     </row>
     <row r="7" spans="1:5" ht="17" thickBot="1">
-      <c r="A7" s="82"/>
-      <c r="B7" s="88"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="93"/>
       <c r="C7" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="D7" s="91"/>
+      <c r="D7" s="84"/>
       <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" ht="18" thickTop="1">
-      <c r="A8" s="82"/>
-      <c r="B8" s="92" t="s">
+      <c r="A8" s="87"/>
+      <c r="B8" s="96" t="s">
         <v>330</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="D8" s="95"/>
-      <c r="E8" s="89" t="s">
+      <c r="D8" s="99"/>
+      <c r="E8" s="94" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="82"/>
-      <c r="B9" s="93"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D9" s="96"/>
-      <c r="E9" s="90"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="95"/>
     </row>
     <row r="10" spans="1:5" ht="17" thickBot="1">
-      <c r="A10" s="82"/>
-      <c r="B10" s="94"/>
+      <c r="A10" s="87"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="D10" s="97"/>
-      <c r="E10" s="91"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="84"/>
     </row>
     <row r="11" spans="1:5" ht="17" thickTop="1">
-      <c r="A11" s="82"/>
-      <c r="B11" s="98" t="s">
+      <c r="A11" s="87"/>
+      <c r="B11" s="102" t="s">
         <v>335</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>336</v>
       </c>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89" t="s">
+      <c r="D11" s="94"/>
+      <c r="E11" s="94" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="82"/>
-      <c r="B12" s="99"/>
+      <c r="A12" s="87"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
     </row>
     <row r="13" spans="1:5" ht="17" thickBot="1">
-      <c r="A13" s="82"/>
-      <c r="B13" s="100"/>
+      <c r="A13" s="87"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
     </row>
     <row r="14" spans="1:5" ht="17">
-      <c r="A14" s="82"/>
-      <c r="B14" s="73" t="s">
+      <c r="A14" s="87"/>
+      <c r="B14" s="74" t="s">
         <v>339</v>
       </c>
       <c r="C14" s="23" t="s">
@@ -6918,68 +7087,70 @@
       <c r="D14" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="E14" s="89" t="s">
+      <c r="E14" s="94" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="82"/>
-      <c r="B15" s="74"/>
+      <c r="A15" s="87"/>
+      <c r="B15" s="75"/>
       <c r="C15" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="D15" s="102" t="s">
+      <c r="D15" s="106" t="s">
         <v>344</v>
       </c>
-      <c r="E15" s="90"/>
+      <c r="E15" s="95"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="82"/>
-      <c r="B16" s="74"/>
+      <c r="A16" s="87"/>
+      <c r="B16" s="75"/>
       <c r="C16" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D16" s="102"/>
-      <c r="E16" s="90"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="95"/>
     </row>
     <row r="17" spans="1:5" ht="17" thickBot="1">
-      <c r="A17" s="82"/>
-      <c r="B17" s="74"/>
+      <c r="A17" s="87"/>
+      <c r="B17" s="75"/>
       <c r="C17" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="D17" s="103"/>
-      <c r="E17" s="101"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="105"/>
     </row>
     <row r="18" spans="1:5" ht="17" thickTop="1">
-      <c r="A18" s="82"/>
-      <c r="B18" s="104" t="s">
+      <c r="A18" s="87"/>
+      <c r="B18" s="108" t="s">
         <v>347</v>
       </c>
-      <c r="C18" s="107" t="s">
+      <c r="C18" s="111" t="s">
         <v>348</v>
       </c>
-      <c r="D18" s="108"/>
-      <c r="E18" s="91" t="s">
+      <c r="D18" s="82"/>
+      <c r="E18" s="84" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="82"/>
-      <c r="B19" s="105"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="110"/>
+      <c r="A19" s="87"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="85"/>
     </row>
     <row r="20" spans="1:5" ht="17" thickBot="1">
-      <c r="A20" s="83"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="110"/>
+      <c r="A20" s="88"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="A2:A20"/>
@@ -6996,8 +7167,6 @@
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="D15:D17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7716,25 +7885,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7CFFA3-1CB6-CA4C-A0E3-D50F1E1B42BE}">
-  <dimension ref="B2:E25"/>
+  <dimension ref="B2:E31"/>
   <sheetViews>
-    <sheetView zoomScale="144" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A8" zoomScale="144" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="28.83203125" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
     <col min="4" max="4" width="75.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="113" t="s">
         <v>448</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
     </row>
     <row r="3" spans="2:5">
       <c r="E3" t="s">
@@ -7742,7 +7911,7 @@
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="114" t="s">
         <v>453</v>
       </c>
       <c r="C4" s="71" t="s">
@@ -7753,7 +7922,7 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="112"/>
+      <c r="B5" s="114"/>
       <c r="C5" t="s">
         <v>451</v>
       </c>
@@ -7762,7 +7931,7 @@
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="112"/>
+      <c r="B6" s="114"/>
       <c r="C6" t="s">
         <v>454</v>
       </c>
@@ -7771,7 +7940,7 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="112"/>
+      <c r="B7" s="114"/>
       <c r="C7" s="71" t="s">
         <v>449</v>
       </c>
@@ -7783,7 +7952,7 @@
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="112"/>
+      <c r="B8" s="114"/>
       <c r="C8" t="s">
         <v>452</v>
       </c>
@@ -7795,13 +7964,13 @@
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="112"/>
+      <c r="B9" s="114"/>
       <c r="C9" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="113" t="s">
+      <c r="B11" s="115" t="s">
         <v>458</v>
       </c>
       <c r="C11" t="s">
@@ -7812,7 +7981,7 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="113"/>
+      <c r="B12" s="115"/>
       <c r="C12" t="s">
         <v>461</v>
       </c>
@@ -7821,7 +7990,7 @@
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="116" t="s">
         <v>462</v>
       </c>
       <c r="C14" t="s">
@@ -7832,7 +8001,7 @@
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="114"/>
+      <c r="B15" s="116"/>
       <c r="C15" t="s">
         <v>464</v>
       </c>
@@ -7841,7 +8010,7 @@
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="117" t="s">
         <v>465</v>
       </c>
       <c r="C17" t="s">
@@ -7852,7 +8021,7 @@
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="115"/>
+      <c r="B18" s="117"/>
       <c r="C18" t="s">
         <v>469</v>
       </c>
@@ -7861,7 +8030,7 @@
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="116" t="s">
+      <c r="B20" s="112" t="s">
         <v>472</v>
       </c>
       <c r="C20" t="s">
@@ -7869,25 +8038,25 @@
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="116"/>
+      <c r="B21" s="112"/>
       <c r="C21" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="116"/>
+      <c r="B22" s="112"/>
       <c r="C22" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="116"/>
+      <c r="B23" s="112"/>
       <c r="C23" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="116"/>
+      <c r="B24" s="112"/>
       <c r="C24" t="s">
         <v>478</v>
       </c>
@@ -7896,9 +8065,41 @@
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="116"/>
+      <c r="B25" s="112"/>
       <c r="C25" t="s">
         <v>480</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
+        <v>485</v>
+      </c>
+      <c r="C28" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" t="s">
+        <v>486</v>
+      </c>
+      <c r="C29" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" t="s">
+        <v>488</v>
+      </c>
+      <c r="C30" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>489</v>
+      </c>
+      <c r="C31" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -7917,29 +8118,186 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF4FFE5-6484-614B-B260-EC4B3D76AE11}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="3" max="3" width="66.83203125" customWidth="1"/>
+    <col min="4" max="4" width="70.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="124" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="B2" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="131"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="123" t="s">
+        <v>494</v>
+      </c>
+      <c r="C2" s="127" t="s">
         <v>484</v>
       </c>
+      <c r="D2" s="127" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="118" t="s">
+        <v>495</v>
+      </c>
+      <c r="C3" s="128" t="s">
+        <v>456</v>
+      </c>
+      <c r="D3" s="128"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="119" t="s">
+        <v>496</v>
+      </c>
+      <c r="C4" s="128" t="s">
+        <v>456</v>
+      </c>
+      <c r="D4" s="128" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="118" t="s">
+        <v>497</v>
+      </c>
+      <c r="C5" s="128" t="s">
+        <v>456</v>
+      </c>
+      <c r="D5" s="128"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="118" t="s">
+        <v>498</v>
+      </c>
+      <c r="C6" s="128" t="s">
+        <v>456</v>
+      </c>
+      <c r="D6" s="128"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="120" t="s">
+        <v>502</v>
+      </c>
+      <c r="C7" s="129" t="s">
+        <v>456</v>
+      </c>
+      <c r="D7" s="128" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="121"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="128" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="119" t="s">
+        <v>504</v>
+      </c>
+      <c r="C9" s="128" t="s">
+        <v>456</v>
+      </c>
+      <c r="D9" s="128"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="132"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="7"/>
+      <c r="B12" s="73" t="s">
+        <v>318</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="D13" s="134" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="134"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="D15" s="134"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="D16" s="134"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="7"/>
+      <c r="B17" s="122" t="s">
+        <v>489</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="D17" s="134"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="134"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D13:D18"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
